--- a/Results/comparison_initialization.xlsx
+++ b/Results/comparison_initialization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050A9B35-85D5-164E-B882-9721704893EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB304D3C-DAA8-634C-99CF-BC52E09DBF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
+    <workbookView xWindow="40260" yWindow="-2140" windowWidth="27640" windowHeight="15780" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results/comparison_initialization.xlsx
+++ b/Results/comparison_initialization.xlsx
@@ -8,14 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB304D3C-DAA8-634C-99CF-BC52E09DBF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66591FB-8490-4349-984C-56EF6B6311E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40260" yWindow="-2140" windowWidth="27640" windowHeight="15780" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
+    <workbookView xWindow="40020" yWindow="-2140" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$11:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$F$11:$F$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$F$11:$F$14</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$G$11:$G$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$11:$A$14</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$F$11:$F$14</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$G$11:$G$14</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$C$3:$C$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$G$11:$G$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$3:$C$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$11:$A$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$11:$B$14</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$11:$C$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$11:$A$14</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>DEPTH 1</t>
   </si>
@@ -94,11 +115,41 @@
   <si>
     <t>DEPTH 4</t>
   </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Mean in-sample MAE</t>
+  </si>
+  <si>
+    <t>Warm start</t>
+  </si>
+  <si>
+    <t>FlowORT-H(warm start)</t>
+  </si>
+  <si>
+    <t>FlowORT-H</t>
+  </si>
+  <si>
+    <t>Mean in-sample R2</t>
+  </si>
+  <si>
+    <t>Mean improvement</t>
+  </si>
+  <si>
+    <t>Mean out-of--sample R2</t>
+  </si>
+  <si>
+    <t>Mean out-of-sample MAE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -148,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -157,6 +208,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +243,4216 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Warm start</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10321019941519131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8288397074959427E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9030642788655726E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1797741300557803E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37D4-F24E-99BD-C29EC2C97C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT-H (warm start)  </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2443501811364256E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3321695338597476E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1516864839690201E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6073610425412413E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37D4-F24E-99BD-C29EC2C97C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1743457183"/>
+        <c:axId val="1743459183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1743457183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth of tree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743459183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1743459183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> In-sample MAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743457183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Warm start</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.54088946654363301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54084536187473042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54362589549406781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57141744044058584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69AC-CC41-BD27-7AB18681C5D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT-H (warm start)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.52049812445718369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59304854805491836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59740894284878387</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62853170831238658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69AC-CC41-BD27-7AB18681C5D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1743651471"/>
+        <c:axId val="1743653199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1743651471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743653199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1743653199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>In-sample </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743651471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Warm start</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$11:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.53353238129540481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52507870835852732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51181202502840439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53585320845607376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AF2-F946-A027-665FC53BFDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT-H (warm start)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$11:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50842109741857799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54781487576209875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45223232708359029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56105156900550779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AF2-F946-A027-665FC53BFDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="940958703"/>
+        <c:axId val="940903487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="940958703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth of tree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39613998250218724"/>
+              <c:y val="0.74470581802274716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940903487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="940903487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Out-of-sample </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940958703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Warm start</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45081032414121758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1023354148469757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10335973997231933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8775420916370746E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-408E-8548-8782-775442D018A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT-H (warm start)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.8987825382591479E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6158713503610415E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0394009787750062E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2381908232444886E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-408E-8548-8782-775442D018A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1704572127"/>
+        <c:axId val="1704573855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1704572127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth of tree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704573855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1704573855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Out-of-sample</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> MAE</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704572127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559C9086-BABC-127D-A98D-FE0986D73C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8101DC-35E1-E516-6EF9-61E41D5D6827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D8CC20-68DE-FD44-B967-B2BD42F00234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C5638A-659D-5A7B-0209-FC37E86AB6B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,10 +4752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03E5CB3-DBAF-8441-AC57-BA20BC67E9C9}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q36" activeCellId="3" sqref="Q9:S9 Q18:S18 Q27:S27 Q36:S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,910 +5069,1512 @@
         <v>0.98600789335546601</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="34" x14ac:dyDescent="0.4">
-      <c r="G9" s="1" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E9" s="5">
+        <f>AVERAGE(E4:E8)</f>
+        <v>0.10321019941519131</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:G9" si="0">AVERAGE(F4:F8)</f>
+        <v>8.2443501811364256E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3312909039776737E-2</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
+        <f t="shared" ref="I9" si="1">AVERAGE(I4:I8)</f>
+        <v>0.54088946654363301</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" ref="J9:K9" si="2">AVERAGE(J4:J8)</f>
+        <v>0.52049812445718369</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4638152453711471</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <f t="shared" ref="M9" si="3">AVERAGE(M4:M8)</f>
+        <v>0.45081032414121758</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" ref="N9" si="4">AVERAGE(N4:N8)</f>
+        <v>8.8987825382591479E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ref="O9" si="5">AVERAGE(O4:O8)</f>
+        <v>0.10093281003769386</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6">
+        <f t="shared" ref="Q9" si="6">AVERAGE(Q4:Q8)</f>
+        <v>0.53353238129540481</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" ref="R9" si="7">AVERAGE(R4:R8)</f>
+        <v>0.50842109741857799</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9" si="8">AVERAGE(S4:S8)</f>
+        <v>0.43434803459247168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G10" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>8</v>
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4176</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>5.7862971573451598E-2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5.3761292985891398E-2</v>
-      </c>
-      <c r="G12">
-        <v>5.9673745087904802E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.52104963159800799</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.545984711900941</v>
-      </c>
-      <c r="K12">
-        <v>-3.3842037332711299</v>
-      </c>
-      <c r="M12">
-        <v>5.6912091880954301E-2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>5.2946485610606803E-2</v>
-      </c>
-      <c r="O12">
-        <v>5.43806492220281E-2</v>
-      </c>
-      <c r="Q12">
-        <v>0.52697094905314601</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0.55796724055751701</v>
-      </c>
-      <c r="S12">
-        <v>0.53625923743119197</v>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1502</v>
+        <v>4176</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>0.10154237523802</v>
+        <v>5.7862971573451598E-2</v>
       </c>
       <c r="F13" s="4">
-        <v>9.4107093954494306E-2</v>
+        <v>5.3761292985891398E-2</v>
       </c>
       <c r="G13">
-        <v>0.22625079507427201</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.53920518235564296</v>
-      </c>
-      <c r="J13">
-        <v>0.51862591664825497</v>
+        <v>5.9673745087904802E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.52104963159800799</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.545984711900941</v>
       </c>
       <c r="K13">
-        <v>-507.71882303332802</v>
+        <v>-3.3842037332711299</v>
       </c>
       <c r="M13">
-        <v>9.4220216332376094E-2</v>
+        <v>5.6912091880954301E-2</v>
       </c>
       <c r="N13" s="4">
-        <v>9.2552602366027997E-2</v>
+        <v>5.2946485610606803E-2</v>
       </c>
       <c r="O13">
-        <v>5.07838913355826</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0.52054801746456003</v>
-      </c>
-      <c r="R13">
-        <v>0.47974793945796201</v>
+        <v>5.43806492220281E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.52697094905314601</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.55796724055751701</v>
       </c>
       <c r="S13">
-        <v>-127173.339243536</v>
+        <v>0.53625923743119197</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>391</v>
+        <v>1502</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>0.177495438391959</v>
+        <v>0.10154237523802</v>
       </c>
       <c r="F14" s="4">
-        <v>0.118648204214143</v>
+        <v>9.4107093954494306E-2</v>
       </c>
       <c r="G14">
-        <v>0.18735037062731499</v>
-      </c>
-      <c r="I14">
-        <v>0.52004877099864799</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.57999453305134296</v>
+        <v>0.22625079507427201</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.53920518235564296</v>
+      </c>
+      <c r="J14">
+        <v>0.51862591664825497</v>
       </c>
       <c r="K14">
-        <v>0.50820512726177802</v>
+        <v>-507.71882303332802</v>
       </c>
       <c r="M14">
-        <v>0.206051207507219</v>
+        <v>9.4220216332376094E-2</v>
       </c>
       <c r="N14" s="4">
-        <v>0.175686184844974</v>
+        <v>9.2552602366027997E-2</v>
       </c>
       <c r="O14">
-        <v>3.3339997497032301</v>
+        <v>5.07838913355826</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.42619201111861399</v>
+        <v>0.52054801746456003</v>
       </c>
       <c r="R14">
-        <v>0.40131171558032502</v>
+        <v>0.47974793945796201</v>
       </c>
       <c r="S14">
-        <v>-2848.34800551641</v>
+        <v>-127173.339243536</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>4897</v>
+        <v>391</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>9.5690657323454803E-2</v>
+        <v>0.177495438391959</v>
       </c>
       <c r="F15" s="4">
-        <v>9.2724549446084298E-2</v>
+        <v>0.118648204214143</v>
       </c>
       <c r="G15">
-        <v>9.6383454540238001E-2</v>
+        <v>0.18735037062731499</v>
       </c>
       <c r="I15">
-        <v>0.31388955649650502</v>
+        <v>0.52004877099864799</v>
       </c>
       <c r="J15" s="4">
-        <v>0.32420922232073701</v>
+        <v>0.57999453305134296</v>
       </c>
       <c r="K15">
-        <v>0.28063623489582901</v>
+        <v>0.50820512726177802</v>
       </c>
       <c r="M15">
-        <v>9.7650056065033297E-2</v>
+        <v>0.206051207507219</v>
       </c>
       <c r="N15" s="4">
-        <v>9.5685635339985003E-2</v>
+        <v>0.175686184844974</v>
       </c>
       <c r="O15">
-        <v>10.308238085835001</v>
+        <v>3.3339997497032301</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.31193032407043503</v>
+        <v>0.42619201111861399</v>
       </c>
       <c r="R15">
-        <v>0.31112381080436702</v>
+        <v>0.40131171558032502</v>
       </c>
       <c r="S15">
-        <v>-1908796.4418687001</v>
+        <v>-2848.34800551641</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4897</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9.2724549446084298E-2</v>
+      </c>
+      <c r="G16">
+        <v>9.6383454540238001E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.31388955649650502</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.32420922232073701</v>
+      </c>
+      <c r="K16">
+        <v>0.28063623489582901</v>
+      </c>
+      <c r="M16">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>9.5685635339985003E-2</v>
+      </c>
+      <c r="O16">
+        <v>10.308238085835001</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.31193032407043503</v>
+      </c>
+      <c r="R16">
+        <v>0.31112381080436702</v>
+      </c>
+      <c r="S16">
+        <v>-1908796.4418687001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>307</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>5.8850542847911698E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>7.3673360923744401E-3</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>2.27731948050942E-2</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.81003366792484799</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="4">
         <v>0.99642835635331595</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.965552344966225</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>5.6843502449295799E-2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="4">
         <v>1.3922659356458301E-2</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>3.6325225160569297E-2</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>0.83975224008588201</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R17" s="4">
         <v>0.98892367241032297</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>0.88257974602706502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="34" x14ac:dyDescent="0.4">
-      <c r="G17" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" t="s">
-        <v>7</v>
+      <c r="E18" s="5">
+        <f>AVERAGE(E13:E17)</f>
+        <v>9.8288397074959427E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18" si="9">AVERAGE(F13:F17)</f>
+        <v>7.3321695338597476E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" ref="G18" si="10">AVERAGE(G13:G17)</f>
+        <v>0.1184863120269648</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18" si="11">AVERAGE(I13:I17)</f>
+        <v>0.54084536187473042</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" ref="J18" si="12">AVERAGE(J13:J17)</f>
+        <v>0.59304854805491836</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" ref="K18" si="13">AVERAGE(K13:K17)</f>
+        <v>-101.86972661189506</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <f t="shared" ref="M18" si="14">AVERAGE(M13:M17)</f>
+        <v>0.1023354148469757</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" ref="N18" si="15">AVERAGE(N13:N17)</f>
+        <v>8.6158713503610415E-2</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" ref="O18" si="16">AVERAGE(O13:O17)</f>
+        <v>3.7622665686958179</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
+        <f t="shared" ref="Q18" si="17">AVERAGE(Q13:Q17)</f>
+        <v>0.52507870835852732</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" ref="R18" si="18">AVERAGE(R13:R17)</f>
+        <v>0.54781487576209875</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" ref="S18" si="19">AVERAGE(S13:S17)</f>
+        <v>-407763.3420557538</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>10</v>
+    <row r="19" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>4176</v>
-      </c>
-      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" t="s">
         <v>7</v>
-      </c>
-      <c r="E20">
-        <v>5.9037163940816297E-2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5.2983874096568101E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.73221994678913704</v>
-      </c>
-      <c r="I20">
-        <v>0.50321233075070704</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.55177692996415195</v>
-      </c>
-      <c r="K20">
-        <v>-24071.036936287899</v>
-      </c>
-      <c r="M20">
-        <v>5.8254085159011697E-2</v>
-      </c>
-      <c r="N20" s="4">
-        <v>5.2791589462564202E-2</v>
-      </c>
-      <c r="O20">
-        <v>1.8710141750421301</v>
-      </c>
-      <c r="Q20">
-        <v>0.50663592716328398</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0.56284372390919502</v>
-      </c>
-      <c r="S20">
-        <v>-77035.698731945202</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>1502</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>9.5892858461266994E-2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>8.4779202239052998E-2</v>
-      </c>
-      <c r="G21">
-        <v>1.8023455513589901</v>
-      </c>
-      <c r="I21">
-        <v>0.58101301516835002</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.58345671827877899</v>
-      </c>
-      <c r="K21">
-        <v>-51472.628417024898</v>
-      </c>
-      <c r="M21">
-        <v>8.9921351139456498E-2</v>
-      </c>
-      <c r="N21" s="4">
-        <v>8.9644484040512507E-2</v>
-      </c>
-      <c r="O21">
-        <v>2.9536540277163801</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0.55803051643693102</v>
-      </c>
-      <c r="R21">
-        <v>0.44673238858841502</v>
-      </c>
-      <c r="S21">
-        <v>-83446.137057411499</v>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>391</v>
+        <v>4176</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>0.17909373344227</v>
+        <v>5.9037163940816297E-2</v>
       </c>
       <c r="F22" s="4">
-        <v>0.17294444330197301</v>
+        <v>5.2983874096568101E-2</v>
       </c>
       <c r="G22">
-        <v>0.39640511313320997</v>
+        <v>0.73221994678913704</v>
       </c>
       <c r="I22">
-        <v>0.54633607973268705</v>
+        <v>0.50321233075070704</v>
       </c>
       <c r="J22" s="4">
-        <v>0.59021864908024102</v>
+        <v>0.55177692996415195</v>
       </c>
       <c r="K22">
-        <v>-92.995860095202801</v>
+        <v>-24071.036936287899</v>
       </c>
       <c r="M22">
-        <v>0.199379991828459</v>
+        <v>5.8254085159011697E-2</v>
       </c>
       <c r="N22" s="4">
-        <v>0.15005793025472999</v>
+        <v>5.2791589462564202E-2</v>
       </c>
       <c r="O22">
-        <v>5.5327424196359702</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0.43636342866390498</v>
-      </c>
-      <c r="R22">
-        <v>-8.4537226842504601E-2</v>
+        <v>1.8710141750421301</v>
+      </c>
+      <c r="Q22">
+        <v>0.50663592716328398</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.56284372390919502</v>
       </c>
       <c r="S22">
-        <v>-6583.48865591099</v>
+        <v>-77035.698731945202</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>4897</v>
+        <v>1502</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>9.40078574035174E-2</v>
+        <v>9.5892858461266994E-2</v>
       </c>
       <c r="F23" s="4">
-        <v>8.7279205339188495E-2</v>
+        <v>8.4779202239052998E-2</v>
       </c>
       <c r="G23">
-        <v>0.10458684367288</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.33141792517538898</v>
-      </c>
-      <c r="J23">
-        <v>0.27017113317621899</v>
+        <v>1.8023455513589901</v>
+      </c>
+      <c r="I23">
+        <v>0.58101301516835002</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.58345671827877899</v>
       </c>
       <c r="K23">
-        <v>-1.54021673322986E-2</v>
+        <v>-51472.628417024898</v>
       </c>
       <c r="M23">
-        <v>9.6918915395163605E-2</v>
+        <v>8.9921351139456498E-2</v>
       </c>
       <c r="N23" s="4">
-        <v>9.1493360071884799E-2</v>
+        <v>8.9644484040512507E-2</v>
       </c>
       <c r="O23">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="Q23">
-        <v>0.31687312997271899</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0.35193171569377102</v>
+        <v>2.9536540277163801</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.55803051643693102</v>
+      </c>
+      <c r="R23">
+        <v>0.44673238858841502</v>
       </c>
       <c r="S23">
-        <v>-3.7247801345082099E-2</v>
+        <v>-83446.137057411499</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>6.7121600695407901E-2</v>
+        <v>0.17909373344227</v>
       </c>
       <c r="F24" s="4">
-        <v>9.5975992216683695E-3</v>
+        <v>0.17294444330197301</v>
       </c>
       <c r="G24">
-        <v>6.9895011550716896E-2</v>
+        <v>0.39640511313320997</v>
       </c>
       <c r="I24">
-        <v>0.75615012664320602</v>
+        <v>0.54633607973268705</v>
       </c>
       <c r="J24" s="4">
-        <v>0.99142128374452798</v>
+        <v>0.59021864908024102</v>
       </c>
       <c r="K24">
-        <v>-0.63425977151785995</v>
+        <v>-92.995860095202801</v>
       </c>
       <c r="M24">
-        <v>7.2324356339505805E-2</v>
+        <v>0.199379991828459</v>
       </c>
       <c r="N24" s="4">
-        <v>1.7982685109058798E-2</v>
+        <v>0.15005793025472999</v>
       </c>
       <c r="O24">
-        <v>0.163189517515063</v>
-      </c>
-      <c r="Q24">
-        <v>0.74115712290518299</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0.98419103406907504</v>
+        <v>5.5327424196359702</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.43636342866390498</v>
+      </c>
+      <c r="R24">
+        <v>-8.4537226842504601E-2</v>
       </c>
       <c r="S24">
-        <v>-3.8598274316974499</v>
+        <v>-6583.48865591099</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="34" x14ac:dyDescent="0.4">
-      <c r="G25" s="1" t="s">
-        <v>18</v>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>4897</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8.7279205339188495E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.33141792517538898</v>
+      </c>
+      <c r="J25">
+        <v>0.27017113317621899</v>
+      </c>
+      <c r="K25">
+        <v>-1.54021673322986E-2</v>
+      </c>
+      <c r="M25">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>9.1493360071884799E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="Q25">
+        <v>0.31687312997271899</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.35193171569377102</v>
+      </c>
+      <c r="S25">
+        <v>-3.7247801345082099E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>307</v>
+      </c>
+      <c r="C26">
         <v>6</v>
       </c>
-      <c r="R26" t="s">
-        <v>7</v>
+      <c r="E26">
+        <v>6.7121600695407901E-2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9.5975992216683695E-3</v>
+      </c>
+      <c r="G26">
+        <v>6.9895011550716896E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.75615012664320602</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.99142128374452798</v>
+      </c>
+      <c r="K26">
+        <v>-0.63425977151785995</v>
+      </c>
+      <c r="M26">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.7982685109058798E-2</v>
+      </c>
+      <c r="O26">
+        <v>0.163189517515063</v>
+      </c>
+      <c r="Q26">
+        <v>0.74115712290518299</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.98419103406907504</v>
+      </c>
+      <c r="S26">
+        <v>-3.8598274316974499</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>10</v>
+      <c r="E27" s="5">
+        <f>AVERAGE(E22:E26)</f>
+        <v>9.9030642788655726E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27" si="20">AVERAGE(F22:F26)</f>
+        <v>8.1516864839690201E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ref="G27" si="21">AVERAGE(G22:G26)</f>
+        <v>0.62109049330098676</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <f t="shared" ref="I27" si="22">AVERAGE(I22:I26)</f>
+        <v>0.54362589549406781</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" ref="J27" si="23">AVERAGE(J22:J26)</f>
+        <v>0.59740894284878387</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" ref="K27" si="24">AVERAGE(K22:K26)</f>
+        <v>-15127.462175069371</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <f t="shared" ref="M27" si="25">AVERAGE(M22:M26)</f>
+        <v>0.10335973997231933</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" ref="N27" si="26">AVERAGE(N22:N26)</f>
+        <v>8.0394009787750062E-2</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" ref="O27" si="27">AVERAGE(O22:O26)</f>
+        <v>2.1255485994104801</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6">
+        <f t="shared" ref="Q27" si="28">AVERAGE(Q22:Q26)</f>
+        <v>0.51181202502840439</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" ref="R27" si="29">AVERAGE(R22:R26)</f>
+        <v>0.45223232708359029</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" ref="S27" si="30">AVERAGE(S22:S26)</f>
+        <v>-33413.844304100152</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>4176</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5.5677894035133402E-2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5.5677894035133402E-2</v>
-      </c>
-      <c r="G28">
-        <v>1.05613149218841</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.53682563121722005</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.53682563121722005</v>
-      </c>
-      <c r="K28">
-        <v>-247886.220299423</v>
-      </c>
-      <c r="M28" s="4">
-        <v>5.5396652010914801E-2</v>
-      </c>
-      <c r="N28" s="4">
-        <v>5.5396652010914801E-2</v>
-      </c>
-      <c r="O28">
-        <v>5.4419949314154399E-2</v>
-      </c>
-      <c r="Q28">
-        <v>0.53164886071238504</v>
-      </c>
-      <c r="R28">
-        <v>0.53164886071238504</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0.53384216978646504</v>
+    <row r="28" spans="1:19" ht="34" x14ac:dyDescent="0.4">
+      <c r="G28" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>1502</v>
-      </c>
-      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
         <v>5</v>
       </c>
-      <c r="E29">
-        <v>9.1053706873821305E-2</v>
-      </c>
-      <c r="F29" s="4">
-        <v>7.4667012066993194E-2</v>
-      </c>
-      <c r="G29">
-        <v>22.5013397143417</v>
-      </c>
-      <c r="I29">
-        <v>0.61968044936337296</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.64966064985911898</v>
-      </c>
-      <c r="K29">
-        <v>-653850.07640073495</v>
-      </c>
-      <c r="M29">
-        <v>8.7356816022082603E-2</v>
-      </c>
-      <c r="N29" s="4">
-        <v>8.2845363568879199E-2</v>
-      </c>
-      <c r="O29">
-        <v>14.759414407775999</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0.58070735044671196</v>
-      </c>
-      <c r="R29">
-        <v>0.54379340193826697</v>
-      </c>
-      <c r="S29">
-        <v>-548921.14728737005</v>
+      <c r="O29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>391</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>0.152371433009445</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.14776473056802</v>
-      </c>
-      <c r="G30">
-        <v>4.0873505706208801</v>
-      </c>
-      <c r="I30">
-        <v>0.59294346851203805</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.62486485348800003</v>
-      </c>
-      <c r="K30">
-        <v>-6486.7985189335404</v>
-      </c>
-      <c r="M30">
-        <v>0.187210023967568</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.148684981352463</v>
-      </c>
-      <c r="O30">
-        <v>5.10913280881348</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0.47470613774056097</v>
-      </c>
-      <c r="R30">
-        <v>0.42592310766000002</v>
-      </c>
-      <c r="S30">
-        <v>-4540.891686256</v>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>4897</v>
+        <v>4176</v>
       </c>
       <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>9.2556758372483602E-2</v>
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5.5677894035133402E-2</v>
       </c>
       <c r="F31" s="4">
-        <v>9.2437537034513503E-2</v>
+        <v>5.5677894035133402E-2</v>
       </c>
       <c r="G31">
-        <v>1.0931811380654699</v>
-      </c>
-      <c r="I31">
-        <v>0.34986978501082899</v>
+        <v>1.05613149218841</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.53682563121722005</v>
       </c>
       <c r="J31" s="4">
-        <v>0.34915864885319398</v>
+        <v>0.53682563121722005</v>
       </c>
       <c r="K31">
-        <v>-177937.94956473101</v>
-      </c>
-      <c r="M31">
-        <v>9.6353055252005604E-2</v>
+        <v>-247886.220299423</v>
+      </c>
+      <c r="M31" s="4">
+        <v>5.5396652010914801E-2</v>
       </c>
       <c r="N31" s="4">
-        <v>9.6097640261895503E-2</v>
+        <v>5.5396652010914801E-2</v>
       </c>
       <c r="O31">
-        <v>4.0655309842977303</v>
+        <v>5.4419949314154399E-2</v>
       </c>
       <c r="Q31">
-        <v>0.31642269260918898</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0.32066000172088699</v>
-      </c>
-      <c r="S31">
-        <v>-704191.75357026805</v>
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="R31">
+        <v>0.53164886071238504</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0.53384216978646504</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>1502</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>7.4667012066993194E-2</v>
+      </c>
+      <c r="G32">
+        <v>22.5013397143417</v>
+      </c>
+      <c r="I32">
+        <v>0.61968044936337296</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.64966064985911898</v>
+      </c>
+      <c r="K32">
+        <v>-653850.07640073495</v>
+      </c>
+      <c r="M32">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="N32" s="4">
+        <v>8.2845363568879199E-2</v>
+      </c>
+      <c r="O32">
+        <v>14.759414407775999</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.58070735044671196</v>
+      </c>
+      <c r="R32">
+        <v>0.54379340193826697</v>
+      </c>
+      <c r="S32">
+        <v>-548921.14728737005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>391</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.14776473056802</v>
+      </c>
+      <c r="G33">
+        <v>4.0873505706208801</v>
+      </c>
+      <c r="I33">
+        <v>0.59294346851203805</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.62486485348800003</v>
+      </c>
+      <c r="K33">
+        <v>-6486.7985189335404</v>
+      </c>
+      <c r="M33">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0.148684981352463</v>
+      </c>
+      <c r="O33">
+        <v>5.10913280881348</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0.47470613774056097</v>
+      </c>
+      <c r="R33">
+        <v>0.42592310766000002</v>
+      </c>
+      <c r="S33">
+        <v>-4540.891686256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>4897</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>9.2437537034513503E-2</v>
+      </c>
+      <c r="G34">
+        <v>1.0931811380654699</v>
+      </c>
+      <c r="I34">
+        <v>0.34986978501082899</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.34915864885319398</v>
+      </c>
+      <c r="K34">
+        <v>-177937.94956473101</v>
+      </c>
+      <c r="M34">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="N34" s="4">
+        <v>9.6097640261895503E-2</v>
+      </c>
+      <c r="O34">
+        <v>4.0655309842977303</v>
+      </c>
+      <c r="Q34">
+        <v>0.31642269260918898</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0.32066000172088699</v>
+      </c>
+      <c r="S34">
+        <v>-704191.75357026805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>307</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>6</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>6.7328914211905705E-2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F35" s="4">
         <v>9.8208784224020004E-3</v>
       </c>
-      <c r="G32">
+      <c r="G35">
         <v>0.33531583499162898</v>
       </c>
-      <c r="I32">
+      <c r="I35">
         <v>0.75776786809946906</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J35" s="4">
         <v>0.98214875814439995</v>
       </c>
-      <c r="K32">
+      <c r="K35">
         <v>-207.20253683766501</v>
       </c>
-      <c r="M32">
+      <c r="M35">
         <v>6.7560557329282706E-2</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N35" s="4">
         <v>2.8884903968072001E-2</v>
       </c>
-      <c r="O32">
+      <c r="O35">
         <v>1.6019610837345699</v>
       </c>
-      <c r="Q32">
+      <c r="Q35">
         <v>0.77578100077152201</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R35" s="4">
         <v>0.98323247299600003</v>
       </c>
-      <c r="S32">
+      <c r="S35">
         <v>-526.12058384878196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E36" s="5">
+        <f>AVERAGE(E31:E35)</f>
+        <v>9.1797741300557803E-2</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36" si="31">AVERAGE(F31:F35)</f>
+        <v>7.6073610425412413E-2</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" ref="G36" si="32">AVERAGE(G31:G35)</f>
+        <v>5.8146637500416185</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <f t="shared" ref="I36" si="33">AVERAGE(I31:I35)</f>
+        <v>0.57141744044058584</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" ref="J36" si="34">AVERAGE(J31:J35)</f>
+        <v>0.62853170831238658</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" ref="K36" si="35">AVERAGE(K31:K35)</f>
+        <v>-217273.64946413203</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5">
+        <f t="shared" ref="M36" si="36">AVERAGE(M31:M35)</f>
+        <v>9.8775420916370746E-2</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" ref="N36" si="37">AVERAGE(N31:N35)</f>
+        <v>8.2381908232444886E-2</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" ref="O36" si="38">AVERAGE(O31:O35)</f>
+        <v>5.1180918467871859</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5">
+        <f t="shared" ref="Q36" si="39">AVERAGE(Q31:Q35)</f>
+        <v>0.53585320845607376</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" ref="R36" si="40">AVERAGE(R31:R35)</f>
+        <v>0.56105156900550779</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" ref="S36" si="41">AVERAGE(S31:S35)</f>
+        <v>-251635.87585711465</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A41BE-F5CF-EA42-BB62-74DA0CE45BF9}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.10321019941519131</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8.2443501811364256E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9.3312909039776737E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <f>SUM(B3,-C3)</f>
+        <v>2.0766697603827058E-2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.54088946654363301</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.52049812445718369</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.4638152453711471</v>
+      </c>
+      <c r="I3" s="11">
+        <f>SUM(G3,-F3)</f>
+        <v>-2.0391342086449327E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>9.8288397074959427E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>7.3321695338597476E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.1184863120269648</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E6" si="0">SUM(B4,-C4)</f>
+        <v>2.4966701736361951E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.54084536187473042</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.59304854805491836</v>
+      </c>
+      <c r="H4" s="11">
+        <v>-101.86972661189506</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I6" si="1">SUM(G4,-F4)</f>
+        <v>5.2203186180187933E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>9.9030642788655726E-2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8.1516864839690201E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.62109049330098676</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7513777948965525E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.54362589549406781</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.59740894284878387</v>
+      </c>
+      <c r="H5" s="11">
+        <v>-15127.462175069371</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
+        <v>5.3783047354716063E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>9.1797741300557803E-2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>7.6073610425412413E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5.8146637500416185</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.572413087514539E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.57141744044058584</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.62853170831238658</v>
+      </c>
+      <c r="H6" s="11">
+        <v>-217273.64946413203</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
+        <v>5.7114267871800739E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.45081032414121758</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8.8987825382591479E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.10093281003769386</v>
+      </c>
+      <c r="E11" s="11">
+        <f>SUM(B11,-C11)</f>
+        <v>0.3618224987586261</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.53353238129540481</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.50842109741857799</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.43434803459247168</v>
+      </c>
+      <c r="I11" s="11">
+        <f>SUM(G11,-F11)</f>
+        <v>-2.5111283876826818E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.1023354148469757</v>
+      </c>
+      <c r="C12" s="12">
+        <v>8.6158713503610415E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3.7622665686958179</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:E14" si="2">SUM(B12,-C12)</f>
+        <v>1.6176701343365282E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.52507870835852732</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.54781487576209875</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-407763.3420557538</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" ref="I12:I14" si="3">SUM(G12,-F12)</f>
+        <v>2.2736167403571428E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.10335973997231933</v>
+      </c>
+      <c r="C13" s="12">
+        <v>8.0394009787750062E-2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2.1255485994104801</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>2.2965730184569266E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.51181202502840439</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.45223232708359029</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-33413.844304100152</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="3"/>
+        <v>-5.9579697944814103E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11">
+        <v>9.8775420916370746E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>8.2381908232444886E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5.1180918467871859</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6393512683925859E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.53585320845607376</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.56105156900550779</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-251635.87585711465</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="3"/>
+        <v>2.5198360549434029E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results/comparison_initialization.xlsx
+++ b/Results/comparison_initialization.xlsx
@@ -8,34 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66591FB-8490-4349-984C-56EF6B6311E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E256463-213A-6847-ABF9-A32CF3E846AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="-2140" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
+    <workbookView xWindow="35420" yWindow="-100" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$11:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$F$11:$F$14</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$F$11:$F$14</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$G$11:$G$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$11:$A$14</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$F$11:$F$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$G$11:$G$14</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$3:$A$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$C$3:$C$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$G$11:$G$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$3:$A$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$3:$C$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$11:$A$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$11:$B$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$11:$C$14</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$11:$A$14</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -137,10 +117,10 @@
     <t>Mean improvement</t>
   </si>
   <si>
-    <t>Mean out-of--sample R2</t>
+    <t>Mean out-of-sample MAE</t>
   </si>
   <si>
-    <t>Mean out-of-sample MAE</t>
+    <t>Mean out-of-sample R2</t>
   </si>
 </sst>
 </file>
@@ -199,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -209,19 +189,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4754,8 +4732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03E5CB3-DBAF-8441-AC57-BA20BC67E9C9}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q36" activeCellId="3" sqref="Q9:S9 Q18:S18 Q27:S27 Q36:S36"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5087,7 +5065,7 @@
         <f t="shared" ref="I9" si="1">AVERAGE(I4:I8)</f>
         <v>0.54088946654363301</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f t="shared" ref="J9:K9" si="2">AVERAGE(J4:J8)</f>
         <v>0.52049812445718369</v>
       </c>
@@ -6194,7 +6172,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6206,28 +6184,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
+      <c r="A2" s="9"/>
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -6237,7 +6215,7 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -6247,35 +6225,35 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>0.10321019941519131</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>8.2443501811364256E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>9.3312909039776737E-2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <f>SUM(B3,-C3)</f>
         <v>2.0766697603827058E-2</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>0.54088946654363301</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="7">
         <v>0.52049812445718369</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="7">
         <v>0.4638152453711471</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <f>SUM(G3,-F3)</f>
         <v>-2.0391342086449327E-2</v>
       </c>
@@ -6284,29 +6262,29 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>9.8288397074959427E-2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>7.3321695338597476E-2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>0.1184863120269648</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E6" si="0">SUM(B4,-C4)</f>
         <v>2.4966701736361951E-2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>0.54084536187473042</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>0.59304854805491836</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="7">
         <v>-101.86972661189506</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <f t="shared" ref="I4:I6" si="1">SUM(G4,-F4)</f>
         <v>5.2203186180187933E-2</v>
       </c>
@@ -6315,29 +6293,29 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>9.9030642788655726E-2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>8.1516864839690201E-2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>0.62109049330098676</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>1.7513777948965525E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>0.54362589549406781</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>0.59740894284878387</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <v>-15127.462175069371</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>5.3783047354716063E-2</v>
       </c>
@@ -6346,124 +6324,124 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>9.1797741300557803E-2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>7.6073610425412413E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>5.8146637500416185</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>1.572413087514539E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>0.57141744044058584</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>0.62853170831238658</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="7">
         <v>-217273.64946413203</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>5.7114267871800739E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>0.45081032414121758</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>8.8987825382591479E-2</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>0.10093281003769386</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <f>SUM(B11,-C11)</f>
         <v>0.3618224987586261</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>0.53353238129540481</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>0.50842109741857799</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <v>0.43434803459247168</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <f>SUM(G11,-F11)</f>
         <v>-2.5111283876826818E-2</v>
       </c>
@@ -6472,29 +6450,29 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>0.1023354148469757</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>8.6158713503610415E-2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>3.7622665686958179</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <f t="shared" ref="E12:E14" si="2">SUM(B12,-C12)</f>
         <v>1.6176701343365282E-2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <v>0.52507870835852732</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <v>0.54781487576209875</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="7">
         <v>-407763.3420557538</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="7">
         <f t="shared" ref="I12:I14" si="3">SUM(G12,-F12)</f>
         <v>2.2736167403571428E-2</v>
       </c>
@@ -6503,29 +6481,29 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>0.10335973997231933</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>8.0394009787750062E-2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>2.1255485994104801</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <f t="shared" si="2"/>
         <v>2.2965730184569266E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="8">
         <v>0.51181202502840439</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>0.45223232708359029</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>-33413.844304100152</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <f t="shared" si="3"/>
         <v>-5.9579697944814103E-2</v>
       </c>
@@ -6534,45 +6512,45 @@
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>9.8775420916370746E-2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>8.2381908232444886E-2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>5.1180918467871859</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <f t="shared" si="2"/>
         <v>1.6393512683925859E-2</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>0.53585320845607376</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <v>0.56105156900550779</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="7">
         <v>-251635.87585711465</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <f t="shared" si="3"/>
         <v>2.5198360549434029E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results/comparison_initialization.xlsx
+++ b/Results/comparison_initialization.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E256463-213A-6847-ABF9-A32CF3E846AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78F51E0-EB81-644D-B8D1-922B297595B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35420" yWindow="-100" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
+    <workbookView xWindow="32120" yWindow="-2140" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{9DAAE682-07F6-D244-A1D4-3C740FDD4424}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="36">
   <si>
     <t>DEPTH 1</t>
   </si>
@@ -99,9 +101,6 @@
     <t>Depth</t>
   </si>
   <si>
-    <t>Mean in-sample MAE</t>
-  </si>
-  <si>
     <t>Warm start</t>
   </si>
   <si>
@@ -111,16 +110,43 @@
     <t>FlowORT-H</t>
   </si>
   <si>
-    <t>Mean in-sample R2</t>
+    <t>In-sample MAE</t>
   </si>
   <si>
-    <t>Mean improvement</t>
+    <t>Improvement</t>
   </si>
   <si>
-    <t>Mean out-of-sample MAE</t>
+    <t>In-sample R2</t>
   </si>
   <si>
-    <t>Mean out-of-sample R2</t>
+    <t>Out-of-sample R2</t>
+  </si>
+  <si>
+    <t>Out-of-sample MAE</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>abalone</t>
+  </si>
+  <si>
+    <t>airfoil_self_noise</t>
+  </si>
+  <si>
+    <t>auto-mpg</t>
+  </si>
+  <si>
+    <t>winequality-white</t>
+  </si>
+  <si>
+    <t>yacht_hydrodynamics</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -191,21 +217,17 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,20 +285,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:f>Sheet2!$A$3:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -284,20 +303,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$6</c:f>
+              <c:f>Sheet2!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.10321019941519131</c:v>
+                  <c:v>9.8288397074959427E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8288397074959427E-2</c:v>
+                  <c:v>9.9030642788655726E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9030642788655726E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>9.1797741300557803E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -330,20 +346,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:f>Sheet2!$A$3:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -351,20 +364,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$6</c:f>
+              <c:f>Sheet2!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.2443501811364256E-2</c:v>
+                  <c:v>7.3321695338597476E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3321695338597476E-2</c:v>
+                  <c:v>8.1516864839690201E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1516864839690201E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>7.6073610425412413E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -455,7 +465,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -697,7 +707,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18755118110236221"/>
+          <c:y val="0.14965296004666084"/>
+          <c:w val="0.78733770778652667"/>
+          <c:h val="0.68705854476523764"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -721,20 +741,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:f>Sheet2!$A$3:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -742,21 +759,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:f>Sheet2!$F$3:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.54088946654363301</c:v>
+                  <c:v>0.34315978657668694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54084536187473042</c:v>
+                  <c:v>0.34573807519972721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54362589549406781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57141744044058584</c:v>
+                  <c:v>0.3741968527952898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,20 +802,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:f>Sheet2!$A$3:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -809,21 +820,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$3:$G$6</c:f>
+              <c:f>Sheet2!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.52049812445718369</c:v>
+                  <c:v>0.46742946666252844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59304854805491836</c:v>
+                  <c:v>0.48149918125151825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59740894284878387</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62853170831238658</c:v>
+                  <c:v>0.51484715469695408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,7 +872,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1147,20 +1155,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:f>Sheet2!$A$10:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1168,21 +1173,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$11:$F$14</c:f>
+              <c:f>Sheet2!$F$10:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53353238129540481</c:v>
+                  <c:v>0.33247529429845857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52507870835852732</c:v>
+                  <c:v>0.32249460977452948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51181202502840439</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53585320845607376</c:v>
+                  <c:v>0.34831607379697543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,20 +1216,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:f>Sheet2!$A$10:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1235,21 +1234,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$11:$G$14</c:f>
+              <c:f>Sheet2!$G$10:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.50842109741857799</c:v>
+                  <c:v>0.43002091766222339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54781487576209875</c:v>
+                  <c:v>0.45677501206971138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45223232708359029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56105156900550779</c:v>
+                  <c:v>0.44463840507757418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1343,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1632,20 +1628,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:f>Sheet2!$A$10:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1653,20 +1646,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$11:$B$14</c:f>
+              <c:f>Sheet2!$B$10:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45081032414121758</c:v>
+                  <c:v>0.1023354148469757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1023354148469757</c:v>
+                  <c:v>0.10335973997231933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10335973997231933</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>9.8775420916370746E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1699,20 +1689,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:f>Sheet2!$A$10:$A$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1720,20 +1707,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$11:$C$14</c:f>
+              <c:f>Sheet2!$C$10:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.8987825382591479E-2</c:v>
+                  <c:v>8.6158713503610415E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6158713503610415E-2</c:v>
+                  <c:v>8.0394009787750062E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0394009787750062E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8.2381908232444886E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1761,6 +1745,8 @@
         <c:axId val="1704572127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1824,7 +1810,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4290,13 +4276,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4325,15 +4311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4360,16 +4346,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4398,13 +4384,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4730,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03E5CB3-DBAF-8441-AC57-BA20BC67E9C9}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5186,13 +5172,13 @@
         <v>5.9673745087904802E-2</v>
       </c>
       <c r="I13">
-        <v>0.52104963159800799</v>
+        <v>0.31855621438745502</v>
       </c>
       <c r="J13" s="4">
-        <v>0.545984711900941</v>
+        <v>0.3667134960615</v>
       </c>
       <c r="K13">
-        <v>-3.3842037332711299</v>
+        <v>-12.667284148462301</v>
       </c>
       <c r="M13">
         <v>5.6912091880954301E-2</v>
@@ -5204,13 +5190,13 @@
         <v>5.43806492220281E-2</v>
       </c>
       <c r="Q13">
-        <v>0.52697094905314601</v>
+        <v>0.29100678725418699</v>
       </c>
       <c r="R13" s="4">
-        <v>0.55796724055751701</v>
+        <v>0.337610460846544</v>
       </c>
       <c r="S13">
-        <v>0.53625923743119197</v>
+        <v>0.32174056308083399</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -5232,14 +5218,14 @@
       <c r="G14">
         <v>0.22625079507427201</v>
       </c>
-      <c r="I14" s="4">
-        <v>0.53920518235564296</v>
-      </c>
-      <c r="J14">
-        <v>0.51862591664825497</v>
+      <c r="I14">
+        <v>0.32923571039784599</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.425232819511213</v>
       </c>
       <c r="K14">
-        <v>-507.71882303332802</v>
+        <v>0.38464775873649099</v>
       </c>
       <c r="M14">
         <v>9.4220216332376094E-2</v>
@@ -5250,14 +5236,14 @@
       <c r="O14">
         <v>5.07838913355826</v>
       </c>
-      <c r="Q14" s="4">
-        <v>0.52054801746456003</v>
-      </c>
-      <c r="R14">
-        <v>0.47974793945796201</v>
+      <c r="Q14">
+        <v>0.31882657775546602</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.353382662428537</v>
       </c>
       <c r="S14">
-        <v>-127173.339243536</v>
+        <v>0.35984070414238001</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -5280,13 +5266,13 @@
         <v>0.18735037062731499</v>
       </c>
       <c r="I15">
-        <v>0.52004877099864799</v>
+        <v>0.38124495219785998</v>
       </c>
       <c r="J15" s="4">
-        <v>0.57999453305134296</v>
+        <v>0.501384041114872</v>
       </c>
       <c r="K15">
-        <v>0.50820512726177802</v>
+        <v>0.35288045496395998</v>
       </c>
       <c r="M15">
         <v>0.206051207507219</v>
@@ -5297,14 +5283,14 @@
       <c r="O15">
         <v>3.3339997497032301</v>
       </c>
-      <c r="Q15" s="4">
-        <v>0.42619201111861399</v>
-      </c>
-      <c r="R15">
-        <v>0.40131171558032502</v>
+      <c r="Q15">
+        <v>0.30731721731615702</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.44252693624703099</v>
       </c>
       <c r="S15">
-        <v>-2848.34800551641</v>
+        <v>0.25390952375444698</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -5327,13 +5313,13 @@
         <v>9.6383454540238001E-2</v>
       </c>
       <c r="I16">
-        <v>0.31388955649650502</v>
+        <v>8.50602813605396E-2</v>
       </c>
       <c r="J16" s="4">
-        <v>0.32420922232073701</v>
+        <v>0.113495016487556</v>
       </c>
       <c r="K16">
-        <v>0.28063623489582901</v>
+        <v>7.9154429809093596E-2</v>
       </c>
       <c r="M16">
         <v>9.7650056065033297E-2</v>
@@ -5344,14 +5330,14 @@
       <c r="O16">
         <v>10.308238085835001</v>
       </c>
-      <c r="Q16" s="4">
-        <v>0.31193032407043503</v>
-      </c>
-      <c r="R16">
-        <v>0.31112381080436702</v>
+      <c r="Q16">
+        <v>8.8599476726359996E-2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.107649686044281</v>
       </c>
       <c r="S16">
-        <v>-1908796.4418687001</v>
+        <v>-15.4847700965678</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -5374,13 +5360,13 @@
         <v>2.27731948050942E-2</v>
       </c>
       <c r="I17">
-        <v>0.81003366792484799</v>
+        <v>0.60170177453973395</v>
       </c>
       <c r="J17" s="4">
-        <v>0.99642835635331595</v>
+        <v>0.93032196013750101</v>
       </c>
       <c r="K17">
-        <v>0.965552344966225</v>
+        <v>0.90249546547158199</v>
       </c>
       <c r="M17">
         <v>5.6843502449295799E-2</v>
@@ -5392,13 +5378,13 @@
         <v>3.6325225160569297E-2</v>
       </c>
       <c r="Q17">
-        <v>0.83975224008588201</v>
+        <v>0.65662641244012299</v>
       </c>
       <c r="R17" s="4">
-        <v>0.98892367241032297</v>
+        <v>0.90893484274472403</v>
       </c>
       <c r="S17">
-        <v>0.88257974602706502</v>
+        <v>0.89563680373180699</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -5417,15 +5403,15 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5">
         <f t="shared" ref="I18" si="11">AVERAGE(I13:I17)</f>
-        <v>0.54084536187473042</v>
+        <v>0.34315978657668694</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" ref="J18" si="12">AVERAGE(J13:J17)</f>
-        <v>0.59304854805491836</v>
+        <v>0.46742946666252844</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" ref="K18" si="13">AVERAGE(K13:K17)</f>
-        <v>-101.86972661189506</v>
+        <v>-2.1896212078962347</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5">
@@ -5443,15 +5429,15 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5">
         <f t="shared" ref="Q18" si="17">AVERAGE(Q13:Q17)</f>
-        <v>0.52507870835852732</v>
+        <v>0.33247529429845857</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ref="R18" si="18">AVERAGE(R13:R17)</f>
-        <v>0.54781487576209875</v>
+        <v>0.43002091766222339</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" ref="S18" si="19">AVERAGE(S13:S17)</f>
-        <v>-407763.3420557538</v>
+        <v>-2.7307285003716664</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="34" x14ac:dyDescent="0.4">
@@ -5540,13 +5526,13 @@
         <v>0.73221994678913704</v>
       </c>
       <c r="I22">
-        <v>0.50321233075070704</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.55177692996415195</v>
+        <v>0.30472792195628201</v>
+      </c>
+      <c r="J22">
+        <v>0.376016634490483</v>
       </c>
       <c r="K22">
-        <v>-24071.036936287899</v>
+        <v>-14.945888771820499</v>
       </c>
       <c r="M22">
         <v>5.8254085159011697E-2</v>
@@ -5558,13 +5544,13 @@
         <v>1.8710141750421301</v>
       </c>
       <c r="Q22">
-        <v>0.50663592716328398</v>
+        <v>0.27428865066410202</v>
       </c>
       <c r="R22" s="4">
-        <v>0.56284372390919502</v>
+        <v>0.34233873010127303</v>
       </c>
       <c r="S22">
-        <v>-77035.698731945202</v>
+        <v>-56.299638897830398</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -5587,13 +5573,13 @@
         <v>1.8023455513589901</v>
       </c>
       <c r="I23">
-        <v>0.58101301516835002</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.58345671827877899</v>
+        <v>0.36655504726062799</v>
+      </c>
+      <c r="J23">
+        <v>0.44044573205676402</v>
       </c>
       <c r="K23">
-        <v>-51472.628417024898</v>
+        <v>-33.484471999836302</v>
       </c>
       <c r="M23">
         <v>8.9921351139456498E-2</v>
@@ -5604,14 +5590,14 @@
       <c r="O23">
         <v>2.9536540277163801</v>
       </c>
-      <c r="Q23" s="4">
-        <v>0.55803051643693102</v>
-      </c>
-      <c r="R23">
-        <v>0.44673238858841502</v>
+      <c r="Q23">
+        <v>0.34990560547600302</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.36382681483996798</v>
       </c>
       <c r="S23">
-        <v>-83446.137057411499</v>
+        <v>0.33649006564841499</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -5634,13 +5620,13 @@
         <v>0.39640511313320997</v>
       </c>
       <c r="I24">
-        <v>0.54633607973268705</v>
+        <v>0.41053357727387102</v>
       </c>
       <c r="J24" s="4">
-        <v>0.59021864908024102</v>
+        <v>0.49021864908024099</v>
       </c>
       <c r="K24">
-        <v>-92.995860095202801</v>
+        <v>-0.3818815117046</v>
       </c>
       <c r="M24">
         <v>0.199379991828459</v>
@@ -5651,14 +5637,14 @@
       <c r="O24">
         <v>5.5327424196359702</v>
       </c>
-      <c r="Q24" s="4">
-        <v>0.43636342866390498</v>
-      </c>
-      <c r="R24">
-        <v>-8.4537226842504601E-2</v>
+      <c r="Q24">
+        <v>0.32974385725751698</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.54537226842504605</v>
       </c>
       <c r="S24">
-        <v>-6583.48865591099</v>
+        <v>-17.599431963882601</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -5680,14 +5666,14 @@
       <c r="G25">
         <v>0.10458684367288</v>
       </c>
-      <c r="I25" s="4">
-        <v>0.33141792517538898</v>
+      <c r="I25">
+        <v>0.101150258463212</v>
       </c>
       <c r="J25">
-        <v>0.27017113317621899</v>
+        <v>0.16548580802214299</v>
       </c>
       <c r="K25">
-        <v>-1.54021673322986E-2</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>9.6918915395163605E-2</v>
@@ -5699,13 +5685,13 @@
         <v>0.107142857142857</v>
       </c>
       <c r="Q25">
-        <v>0.31687312997271899</v>
+        <v>9.5423456311810206E-2</v>
       </c>
       <c r="R25" s="4">
-        <v>0.35193171569377102</v>
+        <v>0.146061972662412</v>
       </c>
       <c r="S25">
-        <v>-3.7247801345082099E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -5728,13 +5714,13 @@
         <v>6.9895011550716896E-2</v>
       </c>
       <c r="I26">
-        <v>0.75615012664320602</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.99142128374452798</v>
+        <v>0.54572357104464297</v>
+      </c>
+      <c r="J26">
+        <v>0.93532908260795999</v>
       </c>
       <c r="K26">
-        <v>-0.63425977151785995</v>
+        <v>-10.8062026229991</v>
       </c>
       <c r="M26">
         <v>7.2324356339505805E-2</v>
@@ -5746,13 +5732,13 @@
         <v>0.163189517515063</v>
       </c>
       <c r="Q26">
-        <v>0.74115712290518299</v>
+        <v>0.56311147916321502</v>
       </c>
       <c r="R26" s="4">
-        <v>0.98419103406907504</v>
+        <v>0.88627527431985798</v>
       </c>
       <c r="S26">
-        <v>-3.8598274316974499</v>
+        <v>0.82724295093539302</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -5760,7 +5746,7 @@
         <f>AVERAGE(E22:E26)</f>
         <v>9.9030642788655726E-2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <f t="shared" ref="F27" si="20">AVERAGE(F22:F26)</f>
         <v>8.1516864839690201E-2</v>
       </c>
@@ -5771,15 +5757,15 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5">
         <f t="shared" ref="I27" si="22">AVERAGE(I22:I26)</f>
-        <v>0.54362589549406781</v>
+        <v>0.34573807519972721</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" ref="J27" si="23">AVERAGE(J22:J26)</f>
-        <v>0.59740894284878387</v>
+        <v>0.48149918125151825</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" ref="K27" si="24">AVERAGE(K22:K26)</f>
-        <v>-15127.462175069371</v>
+        <v>-11.9236889812721</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5">
@@ -5795,17 +5781,17 @@
         <v>2.1255485994104801</v>
       </c>
       <c r="P27" s="5"/>
-      <c r="Q27" s="6">
+      <c r="Q27" s="11">
         <f t="shared" ref="Q27" si="28">AVERAGE(Q22:Q26)</f>
-        <v>0.51181202502840439</v>
-      </c>
-      <c r="R27" s="5">
+        <v>0.32249460977452948</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" ref="R27" si="29">AVERAGE(R22:R26)</f>
-        <v>0.45223232708359029</v>
+        <v>0.45677501206971138</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" ref="S27" si="30">AVERAGE(S22:S26)</f>
-        <v>-33413.844304100152</v>
+        <v>-14.547067569025838</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="34" x14ac:dyDescent="0.4">
@@ -5893,14 +5879,14 @@
       <c r="G31">
         <v>1.05613149218841</v>
       </c>
-      <c r="I31" s="4">
-        <v>0.53682563121722005</v>
+      <c r="I31">
+        <v>0.34428955419144902</v>
       </c>
       <c r="J31" s="4">
-        <v>0.53682563121722005</v>
+        <v>0.34428955419144902</v>
       </c>
       <c r="K31">
-        <v>-247886.220299423</v>
+        <v>-11.437906705636699</v>
       </c>
       <c r="M31" s="4">
         <v>5.5396652010914801E-2</v>
@@ -5912,13 +5898,13 @@
         <v>5.4419949314154399E-2</v>
       </c>
       <c r="Q31">
-        <v>0.53164886071238504</v>
-      </c>
-      <c r="R31">
-        <v>0.53164886071238504</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0.53384216978646504</v>
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="S31">
+        <v>0.32205312743707698</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -5941,13 +5927,13 @@
         <v>22.5013397143417</v>
       </c>
       <c r="I32">
-        <v>0.61968044936337296</v>
+        <v>0.39852130833361898</v>
       </c>
       <c r="J32" s="4">
-        <v>0.64966064985911898</v>
+        <v>0.50676783767926803</v>
       </c>
       <c r="K32">
-        <v>-653850.07640073495</v>
+        <v>-5368.1781534983402</v>
       </c>
       <c r="M32">
         <v>8.7356816022082603E-2</v>
@@ -5958,14 +5944,14 @@
       <c r="O32">
         <v>14.759414407775999</v>
       </c>
-      <c r="Q32" s="4">
-        <v>0.58070735044671196</v>
-      </c>
-      <c r="R32">
-        <v>0.54379340193826697</v>
+      <c r="Q32">
+        <v>0.36844613987899599</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.40106208607892102</v>
       </c>
       <c r="S32">
-        <v>-548921.14728737005</v>
+        <v>-6025.4118579194601</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -5988,13 +5974,13 @@
         <v>4.0873505706208801</v>
       </c>
       <c r="I33">
-        <v>0.59294346851203805</v>
+        <v>0.46882807710673802</v>
       </c>
       <c r="J33" s="4">
         <v>0.62486485348800003</v>
       </c>
       <c r="K33">
-        <v>-6486.7985189335404</v>
+        <v>-350.28596164797602</v>
       </c>
       <c r="M33">
         <v>0.187210023967568</v>
@@ -6005,14 +5991,14 @@
       <c r="O33">
         <v>5.10913280881348</v>
       </c>
-      <c r="Q33" s="4">
-        <v>0.47470613774056097</v>
-      </c>
-      <c r="R33">
+      <c r="Q33">
+        <v>0.37065566410902301</v>
+      </c>
+      <c r="R33" s="4">
         <v>0.42592310766000002</v>
       </c>
       <c r="S33">
-        <v>-4540.891686256</v>
+        <v>-295.03128853391797</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -6035,13 +6021,13 @@
         <v>1.0931811380654699</v>
       </c>
       <c r="I34">
-        <v>0.34986978501082899</v>
+        <v>0.11502484325871799</v>
       </c>
       <c r="J34" s="4">
-        <v>0.34915864885319398</v>
+        <v>0.116164769981653</v>
       </c>
       <c r="K34">
-        <v>-177937.94956473101</v>
+        <v>-71.833570716143498</v>
       </c>
       <c r="M34">
         <v>9.6353055252005604E-2</v>
@@ -6053,13 +6039,13 @@
         <v>4.0655309842977303</v>
       </c>
       <c r="Q34">
-        <v>0.31642269260918898</v>
+        <v>0.100704817647951</v>
       </c>
       <c r="R34" s="4">
-        <v>0.32066000172088699</v>
+        <v>0.103088690888979</v>
       </c>
       <c r="S34">
-        <v>-704191.75357026805</v>
+        <v>-241.04055239184299</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -6082,13 +6068,13 @@
         <v>0.33531583499162898</v>
       </c>
       <c r="I35">
-        <v>0.75776786809946906</v>
+        <v>0.54432048108592501</v>
       </c>
       <c r="J35" s="4">
         <v>0.98214875814439995</v>
       </c>
       <c r="K35">
-        <v>-207.20253683766501</v>
+        <v>-1.2683199289588101</v>
       </c>
       <c r="M35">
         <v>6.7560557329282706E-2</v>
@@ -6100,13 +6086,13 @@
         <v>1.6019610837345699</v>
       </c>
       <c r="Q35">
-        <v>0.77578100077152201</v>
+        <v>0.59188807958493606</v>
       </c>
       <c r="R35" s="4">
         <v>0.98323247299600003</v>
       </c>
       <c r="S35">
-        <v>-526.12058384878196</v>
+        <v>-8.6758680009152602</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -6125,15 +6111,15 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5">
         <f t="shared" ref="I36" si="33">AVERAGE(I31:I35)</f>
-        <v>0.57141744044058584</v>
+        <v>0.3741968527952898</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" ref="J36" si="34">AVERAGE(J31:J35)</f>
-        <v>0.62853170831238658</v>
+        <v>0.51484715469695408</v>
       </c>
       <c r="K36" s="5">
         <f t="shared" ref="K36" si="35">AVERAGE(K31:K35)</f>
-        <v>-217273.64946413203</v>
+        <v>-1160.600782499411</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5">
@@ -6151,15 +6137,70 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5">
         <f t="shared" ref="Q36" si="39">AVERAGE(Q31:Q35)</f>
-        <v>0.53585320845607376</v>
+        <v>0.34831607379697543</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" ref="R36" si="40">AVERAGE(R31:R35)</f>
-        <v>0.56105156900550779</v>
+        <v>0.44463840507757418</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" ref="S36" si="41">AVERAGE(S31:S35)</f>
-        <v>-251635.87585711465</v>
+        <v>-1313.9675027437399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>-56.299638897830398</v>
+      </c>
+      <c r="M39">
+        <v>0.27428865066410202</v>
+      </c>
+      <c r="O39">
+        <v>0.34233873010127303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>0.33649006564841499</v>
+      </c>
+      <c r="M40">
+        <v>0.34990560547600302</v>
+      </c>
+      <c r="O40">
+        <v>0.36382681483996798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>-17.599431963882601</v>
+      </c>
+      <c r="M41">
+        <v>0.32974385725751698</v>
+      </c>
+      <c r="O41">
+        <v>-1.5385574342897801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>9.5423456311810206E-2</v>
+      </c>
+      <c r="O42">
+        <v>0.146061972662412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>0.82724295093539302</v>
+      </c>
+      <c r="M43">
+        <v>0.56311147916321502</v>
+      </c>
+      <c r="O43">
+        <v>0.88627527431985798</v>
       </c>
     </row>
   </sheetData>
@@ -6168,11 +6209,1530 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A41BE-F5CF-EA42-BB62-74DA0CE45BF9}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2C42F-29CE-B642-AAE9-A3E38CD9AF84}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="A1:P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>4176</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5.3761292985891398E-2</v>
+      </c>
+      <c r="G1">
+        <v>5.9673745087904802E-2</v>
+      </c>
+      <c r="H1">
+        <v>0.31855621438745502</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0.3667134960615</v>
+      </c>
+      <c r="J1">
+        <v>-12.667284148462301</v>
+      </c>
+      <c r="K1">
+        <v>5.6912091880954301E-2</v>
+      </c>
+      <c r="L1" s="4">
+        <v>5.2946485610606803E-2</v>
+      </c>
+      <c r="M1">
+        <v>5.43806492220281E-2</v>
+      </c>
+      <c r="N1">
+        <v>0.29100678725418699</v>
+      </c>
+      <c r="O1" s="4">
+        <v>0.337610460846544</v>
+      </c>
+      <c r="P1">
+        <v>0.32174056308083399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>4176</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.2983874096568101E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.73221994678913704</v>
+      </c>
+      <c r="H2">
+        <v>0.30472792195628201</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.376016634490483</v>
+      </c>
+      <c r="J2">
+        <v>-14.945888771820499</v>
+      </c>
+      <c r="K2">
+        <v>5.8254085159011697E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5.2791589462564202E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.8710141750421301</v>
+      </c>
+      <c r="N2">
+        <v>0.27428865066410202</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.34233873010127303</v>
+      </c>
+      <c r="P2">
+        <v>-56.299638897830398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4176</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.05613149218841</v>
+      </c>
+      <c r="H3">
+        <v>0.34428955419144902</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.34428955419144902</v>
+      </c>
+      <c r="J3">
+        <v>-11.437906705636699</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="M3">
+        <v>5.4419949314154399E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="P3">
+        <v>0.32205312743707698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1502</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.4107093954494306E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.22625079507427201</v>
+      </c>
+      <c r="H4">
+        <v>0.32923571039784599</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.425232819511213</v>
+      </c>
+      <c r="J4">
+        <v>0.38464775873649099</v>
+      </c>
+      <c r="K4">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>9.2552602366027997E-2</v>
+      </c>
+      <c r="M4">
+        <v>5.07838913355826</v>
+      </c>
+      <c r="N4">
+        <v>0.31882657775546602</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.353382662428537</v>
+      </c>
+      <c r="P4">
+        <v>0.35984070414238001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1502</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8.4779202239052998E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.8023455513589901</v>
+      </c>
+      <c r="H5">
+        <v>0.36655504726062799</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.44044573205676402</v>
+      </c>
+      <c r="J5">
+        <v>-33.484471999836302</v>
+      </c>
+      <c r="K5">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>8.9644484040512507E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.9536540277163801</v>
+      </c>
+      <c r="N5">
+        <v>0.34990560547600302</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.36382681483996798</v>
+      </c>
+      <c r="P5">
+        <v>0.33649006564841499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.4667012066993194E-2</v>
+      </c>
+      <c r="G6">
+        <v>22.5013397143417</v>
+      </c>
+      <c r="H6">
+        <v>0.39852130833361898</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.50676783767926803</v>
+      </c>
+      <c r="J6">
+        <v>-5368.1781534983402</v>
+      </c>
+      <c r="K6">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>8.2845363568879199E-2</v>
+      </c>
+      <c r="M6">
+        <v>14.759414407775999</v>
+      </c>
+      <c r="N6">
+        <v>0.36844613987899599</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.40106208607892102</v>
+      </c>
+      <c r="P6">
+        <v>-6025.4118579194601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>391</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.118648204214143</v>
+      </c>
+      <c r="G7">
+        <v>0.18735037062731499</v>
+      </c>
+      <c r="H7">
+        <v>0.38124495219785998</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.501384041114872</v>
+      </c>
+      <c r="J7">
+        <v>0.35288045496395998</v>
+      </c>
+      <c r="K7">
+        <v>0.206051207507219</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.175686184844974</v>
+      </c>
+      <c r="M7">
+        <v>3.3339997497032301</v>
+      </c>
+      <c r="N7">
+        <v>0.30731721731615702</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.44252693624703099</v>
+      </c>
+      <c r="P7">
+        <v>0.25390952375444698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.17909373344227</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.17294444330197301</v>
+      </c>
+      <c r="G8">
+        <v>0.39640511313320997</v>
+      </c>
+      <c r="H8">
+        <v>0.41053357727387102</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.49021864908024099</v>
+      </c>
+      <c r="J8">
+        <v>-0.3818815117046</v>
+      </c>
+      <c r="K8">
+        <v>0.199379991828459</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.15005793025472999</v>
+      </c>
+      <c r="M8">
+        <v>5.5327424196359702</v>
+      </c>
+      <c r="N8">
+        <v>0.32974385725751698</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.54537226842504605</v>
+      </c>
+      <c r="P8">
+        <v>-17.599431963882601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>391</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.14776473056802</v>
+      </c>
+      <c r="G9">
+        <v>4.0873505706208801</v>
+      </c>
+      <c r="H9">
+        <v>0.46882807710673802</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.62486485348800003</v>
+      </c>
+      <c r="J9">
+        <v>-350.28596164797602</v>
+      </c>
+      <c r="K9">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.148684981352463</v>
+      </c>
+      <c r="M9">
+        <v>5.10913280881348</v>
+      </c>
+      <c r="N9">
+        <v>0.37065566410902301</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.42592310766000002</v>
+      </c>
+      <c r="P9">
+        <v>-295.03128853391797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>4897</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.2724549446084298E-2</v>
+      </c>
+      <c r="G10">
+        <v>9.6383454540238001E-2</v>
+      </c>
+      <c r="H10">
+        <v>8.50602813605396E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.113495016487556</v>
+      </c>
+      <c r="J10">
+        <v>7.9154429809093596E-2</v>
+      </c>
+      <c r="K10">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>9.5685635339985003E-2</v>
+      </c>
+      <c r="M10">
+        <v>10.308238085835001</v>
+      </c>
+      <c r="N10">
+        <v>8.8599476726359996E-2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.107649686044281</v>
+      </c>
+      <c r="P10">
+        <v>-15.4847700965678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4897</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8.7279205339188495E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="H11">
+        <v>0.101150258463212</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.16548580802214299</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>9.1493360071884799E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="N11">
+        <v>9.5423456311810206E-2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.146061972662412</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>4897</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9.2437537034513503E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.0931811380654699</v>
+      </c>
+      <c r="H12">
+        <v>0.11502484325871799</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.116164769981653</v>
+      </c>
+      <c r="J12">
+        <v>-71.833570716143498</v>
+      </c>
+      <c r="K12">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>9.6097640261895503E-2</v>
+      </c>
+      <c r="M12">
+        <v>4.0655309842977303</v>
+      </c>
+      <c r="N12">
+        <v>0.100704817647951</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.103088690888979</v>
+      </c>
+      <c r="P12">
+        <v>-241.04055239184299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>307</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5.8850542847911698E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.3673360923744401E-3</v>
+      </c>
+      <c r="G13">
+        <v>2.27731948050942E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.60170177453973395</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.93032196013750101</v>
+      </c>
+      <c r="J13">
+        <v>0.90249546547158199</v>
+      </c>
+      <c r="K13">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.3922659356458301E-2</v>
+      </c>
+      <c r="M13">
+        <v>3.6325225160569297E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.65662641244012299</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.90893484274472403</v>
+      </c>
+      <c r="P13">
+        <v>0.89563680373180699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>307</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6.7121600695407901E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.5975992216683695E-3</v>
+      </c>
+      <c r="G14">
+        <v>6.9895011550716896E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.54572357104464297</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.93532908260795999</v>
+      </c>
+      <c r="J14">
+        <v>-10.8062026229991</v>
+      </c>
+      <c r="K14">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.7982685109058798E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.163189517515063</v>
+      </c>
+      <c r="N14">
+        <v>0.56311147916321502</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.88627527431985798</v>
+      </c>
+      <c r="P14">
+        <v>0.82724295093539302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9.8208784224020004E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.33531583499162898</v>
+      </c>
+      <c r="H15">
+        <v>0.54432048108592501</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.98214875814439995</v>
+      </c>
+      <c r="J15">
+        <v>-1.2683199289588101</v>
+      </c>
+      <c r="K15">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2.8884903968072001E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.6019610837345699</v>
+      </c>
+      <c r="N15">
+        <v>0.59188807958493606</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.98323247299600003</v>
+      </c>
+      <c r="P15">
+        <v>-8.6758680009152602</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:P15">
+    <sortCondition ref="A1:A15"/>
+    <sortCondition ref="D1:D15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD5E8FA-1754-CE45-8A95-FE320B00074F}">
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C3" sqref="C3:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5.7862971573451598E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.3761292985891398E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.9673745087904802E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.31855621438745502</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.3667134960615</v>
+      </c>
+      <c r="H3" s="7">
+        <v>-12.667284148462301</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5.6912091880954301E-2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5.2946485610606803E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>5.43806492220281E-2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.29100678725418699</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.337610460846544</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.32174056308083399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.9037163940816297E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.2983874096568101E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.73221994678913704</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.30472792195628201</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.376016634490483</v>
+      </c>
+      <c r="H4" s="7">
+        <v>-14.945888771820499</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5.8254085159011697E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>5.2791589462564202E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.8710141750421301</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.27428865066410202</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.34233873010127303</v>
+      </c>
+      <c r="N4" s="7">
+        <v>-56.299638897830398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5.5677894035133402E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.05613149218841</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.34428955419144902</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.34428955419144902</v>
+      </c>
+      <c r="H5" s="7">
+        <v>-11.437906705636699</v>
+      </c>
+      <c r="I5" s="8">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5.5396652010914801E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>5.4419949314154399E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.30988566776397097</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.32205312743707698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.10154237523802</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9.4107093954494306E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.22625079507427201</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.32923571039784599</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.425232819511213</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.38464775873649099</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9.4220216332376094E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>9.2552602366027997E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5.07838913355826</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.31882657775546602</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.353382662428537</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.35984070414238001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9.5892858461266994E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8.4779202239052998E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.8023455513589901</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.36655504726062799</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.44044573205676402</v>
+      </c>
+      <c r="H7" s="7">
+        <v>-33.484471999836302</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8.9921351139456498E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>8.9644484040512507E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2.9536540277163801</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.34990560547600302</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.36382681483996798</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.33649006564841499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.1053706873821305E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7.4667012066993194E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>22.5013397143417</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.39852130833361898</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.50676783767926803</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-5368.1781534983402</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8.7356816022082603E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>8.2845363568879199E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>14.759414407775999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.36844613987899599</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.40106208607892102</v>
+      </c>
+      <c r="N8" s="7">
+        <v>-6025.4118579194601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.177495438391959</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.118648204214143</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.18735037062731499</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.38124495219785998</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.501384041114872</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.35288045496395998</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.206051207507219</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.175686184844974</v>
+      </c>
+      <c r="K9" s="7">
+        <v>3.3339997497032301</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.30731721731615702</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.44252693624703099</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.25390952375444698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.17909373344227</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.17294444330197301</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.39640511313320997</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.41053357727387102</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.49021864908024099</v>
+      </c>
+      <c r="H10" s="7">
+        <v>-0.3818815117046</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.199379991828459</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.15005793025472999</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5.5327424196359702</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.32974385725751698</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.54537226842504605</v>
+      </c>
+      <c r="N10" s="7">
+        <v>-17.599431963882601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.152371433009445</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.14776473056802</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.0873505706208801</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.46882807710673802</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.62486485348800003</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-350.28596164797602</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.187210023967568</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.148684981352463</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5.10913280881348</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.37065566410902301</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.42592310766000002</v>
+      </c>
+      <c r="N11" s="7">
+        <v>-295.03128853391797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9.5690657323454803E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9.2724549446084298E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9.6383454540238001E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8.50602813605396E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.113495016487556</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7.9154429809093596E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9.7650056065033297E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>9.5685635339985003E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10.308238085835001</v>
+      </c>
+      <c r="L12" s="7">
+        <v>8.8599476726359996E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.107649686044281</v>
+      </c>
+      <c r="N12" s="7">
+        <v>-15.4847700965678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9.40078574035174E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8.7279205339188495E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.10458684367288</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.101150258463212</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.16548580802214299</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9.6918915395163605E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9.1493360071884799E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="L13" s="7">
+        <v>9.5423456311810206E-2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.146061972662412</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9.2556758372483602E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9.2437537034513503E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.0931811380654699</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.11502484325871799</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.116164769981653</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-71.833570716143498</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9.6353055252005604E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>9.6097640261895503E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4.0655309842977303</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.100704817647951</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.103088690888979</v>
+      </c>
+      <c r="N14" s="7">
+        <v>-241.04055239184299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.8850542847911698E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7.3673360923744401E-3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.27731948050942E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.60170177453973395</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.93032196013750101</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.90249546547158199</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5.6843502449295799E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1.3922659356458301E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3.6325225160569297E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.65662641244012299</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.90893484274472403</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.89563680373180699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.7121600695407901E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9.5975992216683695E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6.9895011550716896E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.54572357104464297</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.93532908260795999</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-10.8062026229991</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7.2324356339505805E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.7982685109058798E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.163189517515063</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.56311147916321502</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.88627527431985798</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.82724295093539302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6.7328914211905705E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>9.8208784224020004E-3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.33531583499162898</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.54432048108592501</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.98214875814439995</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-1.2683199289588101</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6.7560557329282706E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>2.8884903968072001E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.6019610837345699</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.59188807958493606</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.98323247299600003</v>
+      </c>
+      <c r="N17" s="7">
+        <v>-8.6758680009152602</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A41BE-F5CF-EA42-BB62-74DA0CE45BF9}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6184,174 +7744,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="7">
+        <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>0.10321019941519131</v>
-      </c>
-      <c r="C3" s="8">
-        <v>8.2443501811364256E-2</v>
+        <v>9.8288397074959427E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7.3321695338597476E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>9.3312909039776737E-2</v>
+        <v>0.1184863120269648</v>
       </c>
       <c r="E3" s="7">
-        <f>SUM(B3,-C3)</f>
-        <v>2.0766697603827058E-2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.54088946654363301</v>
+        <f t="shared" ref="E3:E5" si="0">SUM(B3,-C3)</f>
+        <v>2.4966701736361951E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.34315978657668694</v>
       </c>
       <c r="G3" s="7">
-        <v>0.52049812445718369</v>
+        <v>0.46742946666252844</v>
       </c>
       <c r="H3" s="7">
-        <v>0.4638152453711471</v>
+        <v>-2.1896212078962347</v>
       </c>
       <c r="I3" s="7">
-        <f>SUM(G3,-F3)</f>
-        <v>-2.0391342086449327E-2</v>
+        <f t="shared" ref="I3:I5" si="1">SUM(G3,-F3)</f>
+        <v>0.12426968008584149</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" s="7">
+        <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>9.8288397074959427E-2</v>
+        <v>9.9030642788655726E-2</v>
       </c>
       <c r="C4" s="8">
-        <v>7.3321695338597476E-2</v>
+        <v>8.1516864839690201E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>0.1184863120269648</v>
+        <v>0.62109049330098676</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:E6" si="0">SUM(B4,-C4)</f>
-        <v>2.4966701736361951E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7513777948965525E-2</v>
       </c>
       <c r="F4" s="7">
-        <v>0.54084536187473042</v>
+        <v>0.34573807519972721</v>
       </c>
       <c r="G4" s="8">
-        <v>0.59304854805491836</v>
+        <v>0.48149918125151825</v>
       </c>
       <c r="H4" s="7">
-        <v>-101.86972661189506</v>
+        <v>-11.9236889812721</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I6" si="1">SUM(G4,-F4)</f>
-        <v>5.2203186180187933E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.13576110605179104</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" s="7">
+        <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>9.9030642788655726E-2</v>
+        <v>9.1797741300557803E-2</v>
       </c>
       <c r="C5" s="8">
-        <v>8.1516864839690201E-2</v>
+        <v>7.6073610425412413E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>0.62109049330098676</v>
+        <v>5.8146637500416185</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>1.7513777948965525E-2</v>
+        <v>1.572413087514539E-2</v>
       </c>
       <c r="F5" s="7">
-        <v>0.54362589549406781</v>
+        <v>0.3741968527952898</v>
       </c>
       <c r="G5" s="8">
-        <v>0.59740894284878387</v>
+        <v>0.51484715469695408</v>
       </c>
       <c r="H5" s="7">
-        <v>-15127.462175069371</v>
+        <v>-1160.600782499411</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>5.3783047354716063E-2</v>
+        <v>0.14065030190166428</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9.1797741300557803E-2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7.6073610425412413E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5.8146637500416185</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>1.572413087514539E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.57141744044058584</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.62853170831238658</v>
-      </c>
-      <c r="H6" s="7">
-        <v>-217273.64946413203</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>5.7114267871800739E-2</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -6362,195 +7903,154 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="13"/>
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.1023354148469757</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8.6158713503610415E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.7622665686958179</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" ref="E10:E12" si="2">SUM(B10,-C10)</f>
+        <v>1.6176701343365282E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.33247529429845857</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.43002091766222339</v>
+      </c>
+      <c r="H10" s="7">
+        <v>-2.7307285003716664</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" ref="I10:I12" si="3">SUM(G10,-F10)</f>
+        <v>9.7545623363764822E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" s="7">
+        <v>3</v>
       </c>
       <c r="B11" s="7">
-        <v>0.45081032414121758</v>
+        <v>0.10335973997231933</v>
       </c>
       <c r="C11" s="8">
-        <v>8.8987825382591479E-2</v>
+        <v>8.0394009787750062E-2</v>
       </c>
       <c r="D11" s="7">
-        <v>0.10093281003769386</v>
+        <v>2.1255485994104801</v>
       </c>
       <c r="E11" s="7">
-        <f>SUM(B11,-C11)</f>
-        <v>0.3618224987586261</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.53353238129540481</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.50842109741857799</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.43434803459247168</v>
-      </c>
-      <c r="I11" s="7">
-        <f>SUM(G11,-F11)</f>
-        <v>-2.5111283876826818E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.1023354148469757</v>
-      </c>
-      <c r="C12" s="8">
-        <v>8.6158713503610415E-2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3.7622665686958179</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E14" si="2">SUM(B12,-C12)</f>
-        <v>1.6176701343365282E-2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.52507870835852732</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.54781487576209875</v>
-      </c>
-      <c r="H12" s="7">
-        <v>-407763.3420557538</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" ref="I12:I14" si="3">SUM(G12,-F12)</f>
-        <v>2.2736167403571428E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.10335973997231933</v>
-      </c>
-      <c r="C13" s="8">
-        <v>8.0394009787750062E-2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2.1255485994104801</v>
-      </c>
-      <c r="E13" s="7">
         <f t="shared" si="2"/>
         <v>2.2965730184569266E-2</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.51181202502840439</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.45223232708359029</v>
-      </c>
-      <c r="H13" s="7">
-        <v>-33413.844304100152</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="F11" s="13">
+        <v>0.32249460977452948</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.45677501206971138</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-14.547067569025838</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" si="3"/>
-        <v>-5.9579697944814103E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+        <v>0.1342804022951819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B12" s="7">
         <v>9.8775420916370746E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C12" s="8">
         <v>8.2381908232444886E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D12" s="7">
         <v>5.1180918467871859</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E12" s="7">
         <f t="shared" si="2"/>
         <v>1.6393512683925859E-2</v>
       </c>
-      <c r="F14" s="7">
-        <v>0.53585320845607376</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.56105156900550779</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-251635.87585711465</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="F12" s="7">
+        <v>0.34831607379697543</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.44463840507757418</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-1313.9675027437399</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="3"/>
-        <v>2.5198360549434029E-2</v>
+        <v>9.632233128059875E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
